--- a/dataset/combined_pair.xlsx
+++ b/dataset/combined_pair.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79450BF-7A79-1148-9967-94786F8A12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701CEB8-F997-9A41-8C22-AA300B424C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32680" yWindow="-5860" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$F$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="292">
   <si>
     <t>id</t>
   </si>
@@ -1005,9 +1005,6 @@
 As for why this test case would not result in a failure, is because it's just a test case that check if the size of the TreeSet is 2, but the program is still running as expected and the program counter is not affected by it.</t>
   </si>
   <si>
-    <t>Explanation correct from the prespective that assumption about equality is not corrent to the tester</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 The first error state in the given code occurs when the `x` and `y` objects are added to the `BigDecimalTree` set. 
 The state of the program at this point is:
@@ -2028,9 +2025,6 @@
     <t>Understands what subsume means. But makes logical error in decision.</t>
   </si>
   <si>
-    <t>Does not say that C1 is stronger than C2</t>
-  </si>
-  <si>
     <t>1.5.2</t>
   </si>
   <si>
@@ -2073,14 +2067,6 @@
     <t>The test case x = [1, 2, 3, 4, 5, 0, 6, 7, 8, 9] will execute the fault of the original code, because the array contains a 0 at the last index, but the function will return the first 0 which is at index 0, so it will return 0 instead of 5.
 The reason why it will execute the fault is that the original code will always return the first occurrence of 0 in the array, regardless of whether or not there are additional occurrences of 0 later in the array. Since the last zero is not the first zero, the original code will return the wrong index.
 It will not result in an error state because the code doesn't throw any exceptions, it just returns the wrong index, so it will not crash the program, but it will produce incorrect results.</t>
-  </si>
-  <si>
-    <t>A test case that results in an error, but not a failure is passing a null value to the function as an argument, for example:
-Copy code
-lastZero(null);
-This will throw a NullPointerException because the code checks for a null value and throws an exception if the input array is null. This is an error because it indicates that something unexpected happened in the program, but it's not a failure because the program will not crash or halt, it will just throw an exception and the program can continue executing other lines of code after catching the exception.
-In this scenario, the program counter will point to the line where the exception is thrown and the execution of the program will be interrupted until the exception is handled or the program exits.
-It is worth noting that this error case is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.</t>
   </si>
   <si>
     <t>Treats error as exception/crash</t>
@@ -3034,6 +3020,23 @@
   </si>
   <si>
     <t>Confidence.2</t>
+  </si>
+  <si>
+    <t>Explanation correct from the prespective that assumption about equality is not correct to the tester</t>
+  </si>
+  <si>
+    <t>A test case that results in an error, but not a failure is passing a null value to the function as an argument, for example:
+lastZero(null);
+This will throw a NullPointerException because the code checks for a null value and throws an exception if the input array is null. This is an error because it indicates that something unexpected happened in the program, but it's not a failure because the program will not crash or halt, it will just throw an exception and the program can continue executing other lines of code after catching the exception.
+In this scenario, the program counter will point to the line where the exception is thrown and the execution of the program will be interrupted until the exception is handled or the program exits.
+It is worth noting that this error case is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.</t>
+  </si>
+  <si>
+    <t>Solution code is faulty.
+Detects test from the commented code</t>
+  </si>
+  <si>
+    <t>Solution code is faulty.</t>
   </si>
 </sst>
 </file>
@@ -3519,13 +3522,13 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.1640625" style="1" customWidth="1"/>
@@ -3553,8 +3556,7 @@
     <col min="28" max="28" width="14.1640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
-    <col min="31" max="33" width="8.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="1"/>
+    <col min="31" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3583,7 +3585,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>8</v>
@@ -3622,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>20</v>
@@ -3649,9 +3651,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -3663,19 +3665,19 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -3687,7 +3689,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -3702,7 +3704,10 @@
         <v>46</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>47</v>
@@ -3723,9 +3728,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -3737,7 +3742,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -3749,7 +3754,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -3761,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -3797,9 +3802,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -3811,7 +3816,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -3820,7 +3825,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -3832,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -3868,9 +3873,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -3882,19 +3887,19 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -3909,7 +3914,7 @@
         <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>43</v>
@@ -3945,9 +3950,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3959,7 +3964,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -3968,10 +3973,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -3983,7 +3988,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
@@ -4019,9 +4024,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4033,7 +4038,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -4042,7 +4047,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -4054,7 +4059,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>46</v>
@@ -4093,9 +4098,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -4107,7 +4112,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -4116,10 +4121,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>76</v>
@@ -4131,7 +4136,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
@@ -4170,9 +4175,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -4184,7 +4189,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -4193,10 +4198,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>80</v>
@@ -4208,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>40</v>
@@ -4247,9 +4252,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="388" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -4261,7 +4266,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>40</v>
@@ -4270,10 +4275,10 @@
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>85</v>
@@ -4285,7 +4290,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -4321,9 +4326,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -4335,19 +4340,19 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>89</v>
@@ -4356,16 +4361,16 @@
         <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>90</v>
@@ -4395,9 +4400,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="388" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -4409,7 +4414,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -4418,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>94</v>
@@ -4436,7 +4441,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>40</v>
@@ -4484,9 +4489,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -4498,7 +4503,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -4507,10 +4512,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>98</v>
@@ -4525,7 +4530,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -4573,9 +4578,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -4587,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -4596,10 +4601,10 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>109</v>
@@ -4611,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -4647,9 +4652,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -4661,7 +4666,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
@@ -4670,10 +4675,10 @@
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>113</v>
@@ -4685,7 +4690,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>43</v>
@@ -4721,9 +4726,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -4735,7 +4740,7 @@
         <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -4744,10 +4749,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>117</v>
@@ -4759,7 +4764,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>40</v>
@@ -4783,7 +4788,7 @@
         <v>46</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>120</v>
@@ -4795,9 +4800,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -4809,19 +4814,19 @@
         <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>122</v>
@@ -4830,10 +4835,10 @@
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>46</v>
@@ -4851,7 +4856,7 @@
         <v>40</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>125</v>
@@ -4872,15 +4877,15 @@
         <v>43</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -4892,7 +4897,7 @@
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>46</v>
@@ -4901,62 +4906,62 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4964,12 +4969,12 @@
         <v>41</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -4981,7 +4986,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
@@ -4990,62 +4995,62 @@
         <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AB19" s="1" t="s">
         <v>43</v>
       </c>
@@ -5053,24 +5058,24 @@
         <v>44</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5079,13 +5084,13 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>43</v>
@@ -5094,10 +5099,10 @@
         <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>43</v>
@@ -5106,22 +5111,22 @@
         <v>69</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>43</v>
@@ -5130,10 +5135,10 @@
         <v>69</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>43</v>
@@ -5142,24 +5147,24 @@
         <v>69</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -5168,40 +5173,40 @@
         <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>46</v>
@@ -5210,11 +5215,11 @@
         <v>41</v>
       </c>
       <c r="Z21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AB21" s="1" t="s">
         <v>43</v>
       </c>
@@ -5222,21 +5227,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
@@ -5245,50 +5250,50 @@
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="AB22" s="3" t="s">
         <v>40</v>
       </c>
@@ -5296,21 +5301,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
@@ -5319,31 +5324,31 @@
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>46</v>
@@ -5352,17 +5357,17 @@
         <v>41</v>
       </c>
       <c r="W23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
       </c>
@@ -5370,98 +5375,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -5470,40 +5475,40 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>46</v>
@@ -5512,10 +5517,10 @@
         <v>69</v>
       </c>
       <c r="Z25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>43</v>
@@ -5524,10 +5529,10 @@
         <v>69</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>3.9</v>
       </c>
@@ -5535,25 +5540,25 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>43</v>
@@ -5563,7 +5568,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>43</v>
@@ -5573,7 +5578,7 @@
       </c>
       <c r="Q26"/>
       <c r="R26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>43</v>
@@ -5584,7 +5589,7 @@
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>43</v>
@@ -5594,7 +5599,7 @@
       </c>
       <c r="Z26"/>
       <c r="AA26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>43</v>
@@ -5604,7 +5609,7 @@
       </c>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="340" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3.9</v>
       </c>
@@ -5612,25 +5617,25 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>43</v>
@@ -5640,7 +5645,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>43</v>
@@ -5650,7 +5655,7 @@
       </c>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -5661,7 +5666,7 @@
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>43</v>
@@ -5671,7 +5676,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>43</v>
@@ -5681,7 +5686,7 @@
       </c>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3.9</v>
       </c>
@@ -5689,25 +5694,25 @@
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>43</v>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="M28"/>
       <c r="N28" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>43</v>
@@ -5727,7 +5732,7 @@
       </c>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>43</v>
@@ -5738,7 +5743,7 @@
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>43</v>
@@ -5748,7 +5753,7 @@
       </c>
       <c r="Z28"/>
       <c r="AA28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>43</v>
@@ -5758,7 +5763,7 @@
       </c>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -5766,25 +5771,25 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>43</v>
@@ -5794,7 +5799,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>43</v>
@@ -5804,7 +5809,7 @@
       </c>
       <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>43</v>
@@ -5815,7 +5820,7 @@
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>43</v>
@@ -5825,7 +5830,7 @@
       </c>
       <c r="Z29"/>
       <c r="AA29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>43</v>
@@ -5835,7 +5840,7 @@
       </c>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>3.9</v>
       </c>
@@ -5843,13 +5848,13 @@
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>46</v>
@@ -5858,13 +5863,13 @@
         <v>69</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>46</v>
@@ -5873,10 +5878,10 @@
         <v>69</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>46</v>
@@ -5885,10 +5890,10 @@
         <v>69</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>46</v>
@@ -5897,10 +5902,10 @@
         <v>69</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X30" s="3" t="s">
         <v>46</v>
@@ -5909,10 +5914,10 @@
         <v>69</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>46</v>
@@ -5921,10 +5926,10 @@
         <v>69</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -5932,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>46</v>
@@ -5947,13 +5952,13 @@
         <v>41</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>46</v>
@@ -5962,10 +5967,10 @@
         <v>41</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>46</v>
@@ -5974,10 +5979,10 @@
         <v>41</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>46</v>
@@ -5986,10 +5991,10 @@
         <v>41</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>46</v>
@@ -5998,10 +6003,10 @@
         <v>41</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>46</v>
@@ -6010,10 +6015,10 @@
         <v>41</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -6021,64 +6026,61 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>43</v>

--- a/dataset/combined_pair.xlsx
+++ b/dataset/combined_pair.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701CEB8-F997-9A41-8C22-AA300B424C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240703DD-5D2E-5640-B7AB-E17C11EAA9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -364,9 +364,6 @@
 </t>
   </si>
   <si>
-    <t>Could not find the case where every element occurs once</t>
-  </si>
-  <si>
     <t>This method does not have any potential test cases that would result in an error, but not a failure. The only exception thrown by the method is a `NullPointerException` which is thrown when the input array `x` is null. This exception is thrown before the program counter reaches any other lines of code in the method, so it would be considered a failure.
 Additionally, the implementation of the function is simple and doesn't have any logical error that could prevent it from returning the expected value. It will always return the last index of zero in the array or -1 if the zero is not present. If a test case is passed to this function it will successfully complete its execution by returning the value.
 It is possible that if the array is not of int type then the function would throw an exception but in the given implementation it is clearly mentioned that the input to the function is int array which eliminates this case as well.</t>
@@ -461,9 +458,6 @@
 ```
 Expected Output: `Last zero index: 6`
 If the output match the expectation, you can say that the solution is working fine and also can capture the output in some image and that can be your evidence of the solution working.</t>
-  </si>
-  <si>
-    <t>Although correct, It did not executed the commented test</t>
   </si>
   <si>
     <t>Here is the corrected version of the code that finds the last index of zero in the array:
@@ -525,9 +519,6 @@
 // test: x = [-3, -2, 0, 1, 4]; Expected = 3</t>
   </si>
   <si>
-    <t>Finds the correct issue but fails to give a fix for the code</t>
-  </si>
-  <si>
     <t xml:space="preserve">The given code correctly counts the number of elements in the input array that are either odd or positive. However, it does not properly handle the case where the input array is null, as it will throw a NullPointerException. To fix this, a null check should be added before the for loop to ensure that the input array is not null. Here is one possible modification:
 ```
 public static int oddOrPos (int[] x)
@@ -647,9 +638,6 @@
 It's worth noting that the function has a null check and throws NullPointerException if the input array is null, meaning that passing a null array will result in the fault in this case, which is desirable and expected.</t>
   </si>
   <si>
-    <t>Talks about the empty cases but misses the null case</t>
-  </si>
-  <si>
     <t>A test case that does not execute the fault would be an input array of all even and non-positive integers, such as [0, -2, -4, -6]. The method would return 0 as the count of elements in the array that are either odd or positive is 0.</t>
   </si>
   <si>
@@ -698,9 +686,6 @@
   </si>
   <si>
     <t>A test case that results in an error would be passing a null value for the parameter x, as the method throws a NullPointerException in this case. This is not a failure as the method is correctly handling the error condition by throwing an exception.</t>
-  </si>
-  <si>
-    <t>Did not talk about the commented test case</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -764,9 +749,6 @@
 ```if (x[i] % 2 != 0 || x[i] &gt; 0)``` 
 The current if statement check for x[i] &gt; 0 but in case the element is negative and even it will be considered as not odd or positive. But if we use above if statement it will take care of even positive numbers too.
 Please verify the output for the given test cases and consider it as a evidence for the new program working.</t>
-  </si>
-  <si>
-    <t>Finds a solution that the writer did not talk about</t>
   </si>
   <si>
     <t>I'm sorry, I am an AI language model and do not have the capability to execute code or take screenshots. However, based on the provided code, it looks like the function "oddOrPos" is counting the number of elements in the input array "x" that are either odd or positive. The given test case, where x = [-3, -2, 0, 1, 4], should return 3 as there are 3 elements (1, -2 and 4) that are either odd or positive in the array x. If this test case returns the expected output, then the function should be working correctly.</t>
@@ -959,11 +941,6 @@
 This test case demonstrates the inconsistency between equals() and compareTo() in the BigDecimal class, but it does not result in an error state as the program runs successfully.</t>
   </si>
   <si>
-    <t>In the given example, the problem is that the BigDecimal class's equals() and compareTo() methods are inconsistent. The code creates two BigDecimal objects, x and y, with the values "1.0" and "1.00" respectively. Even though x and y are not equal according to the equals() method (!x.equals(y)), the compareTo() method returns 0, indicating that they are equal.
-When these objects are added to a TreeSet, the set uses the compareTo() method to determine equality, so only one element is added to the set. However, when added to a HashSet, the set uses the equals() method, so both x and y are added to the set.
-A test case that executes this fault but does not result in an error state would be to create two BigDecimal objects with slightly different values, and add them to both a TreeSet and a HashSet. The output of the test would show that the TreeSet only has one element, while the HashSet has two elements, which would demonstrate the inconsistency between the equals() and compareTo() methods in the BigDecimal class.</t>
-  </si>
-  <si>
     <t>If possible, give a test case that results in an error, but not a failure. If not, briefly explain why not. Hint: Don’t forget about the program counter.</t>
   </si>
   <si>
@@ -986,9 +963,6 @@
 </t>
   </si>
   <si>
-    <t>Treats error equavalent to exception</t>
-  </si>
-  <si>
     <t>The code you've provided is an example of a class that demonstrates a problem with the `BigDecimal` class, specifically the inconsistency between its `equals()` and `compareTo()` methods. In this example, `x` and `y` are two `BigDecimal` objects that have the same value but are not considered equal by the `equals()` method. 
 The code creates two sets, `BigDecimalTree` and `BigDecimalHash`, both of which are initialized with the `x` and `y` values. However, because `TreeSet` uses the `compareTo()` method for ordering elements and determining uniqueness, and `HashSet` uses the `equals()` method, the two sets end up with different numbers of elements. 
 In order to demonstrate a case which result in an error, but not a failure one can try use BigDecimal to write a program that performs some computation and compares the results of the computation to an expected value. 
@@ -1015,9 +989,6 @@
 </t>
   </si>
   <si>
-    <t>Wrong assumption by chatGPT</t>
-  </si>
-  <si>
     <t>The first error state in the given code is that the `BigDecimalTree` Set only contains one element (1.0) instead of two (1.0 and 1.00) as expected. This is because the `TreeSet` class uses the `compareTo()` method to determine equality of elements, whereas the `BigDecimal` class has an inconsistent implementation of `compareTo()` and `equals()`, such that `x.compareTo(y) == 0` but `!x.equals(y)`. Since `x` and `y` are not considered equal according to `equals()`, they are both added to the `BigDecimalTree` Set, resulting in only one element in the set.</t>
   </si>
   <si>
@@ -1025,9 +996,6 @@
   </si>
   <si>
     <t>The first error state in the given code occurs when the elements x and y, which are instances of the BigDecimal class with the values "1.0" and "1.00" respectively, are added to the BigDecimalTree Set. Since the TreeSet uses the compareTo() method for comparison, the element y is considered equal to the element x and is not added to the set, resulting in the BigDecimalTree Set having only 1 element. This is an error state as the expected behavior is that the BigDecimalTree Set should have 2 elements, x and y, as they have different values.</t>
-  </si>
-  <si>
-    <t>Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1191,9 +1159,6 @@
 </t>
   </si>
   <si>
-    <t>There will be no valid code solution</t>
-  </si>
-  <si>
     <t>The class `ColorPoint` is a subclass of `Point`, and it extends the state of the `Point` class by adding a color field. However, the implementation of the `equals` method in the `ColorPoint` class fails to take this into account.
 In the `equals` method at Location B, it first checks if the object passed in is an instance of `ColorPoint` using the `instanceof` operator. If it is not, it immediately returns `false`. This means that a `Point` object and a `ColorPoint` object with the same x and y coordinates will be considered not equal, even though they should be.
 To fix this, the check at Location B should be modified to check if the passed in object is an instance of `Point` instead of `ColorPoint`. This way, a `Point` object and a `ColorPoint` object with the same x and y coordinates will be considered equal. Additionally, `ColorPoint` should override `hashCode` method if it also overrode `equals` to be compliant with general contract for `hashCode()` and `equals()`
@@ -1225,9 +1190,6 @@
 By doing this, `equals` would now correctly handle the case where it is passed an object of a superclass, and the above test cases would produce the expected results.</t>
   </si>
   <si>
-    <t>Talks about hashcode which the author missed</t>
-  </si>
-  <si>
     <t>The given code contains a fault in the implementation of the equals method in the ColorPoint class. The problem is that the subclass, ColorPoint, extends the state of the superclass, Point, by adding a color field, but it does not override the equals method of the superclass to take this additional state into account.
 To fix this fault, the equals method in the ColorPoint class should be modified to check if the objects being compared are instances of the same class, and then check the color field in addition to the x and y fields inherited from the Point class.
 A possible modification to the code would be:
@@ -1278,9 +1240,6 @@
 p1.equals(p2); // Result = true
 ```
 As you can see, this test case does not execute the fault because it does not involve any instances of the `ColorPoint` class.</t>
-  </si>
-  <si>
-    <t>Talks about the problem in both equals()</t>
   </si>
   <si>
     <t>The class ColorPoint extends Point, and adds the additional state of 'color'. The class overrides the equals method, but the implementation is faulty as it only compares the color state of the ColorPoint class, it does not consider the Point class' state of x and y. In the test cases, p.equals(cp1) returns true, but cp1.equals(p) returns false, and cp1.equals(cp2) also returns false, while they are expected to return true.
@@ -1382,9 +1341,6 @@
   <si>
     <t>The first error state in the given code is in the implementation of the `equals` method in the `ColorPoint` class. The implementation overrides the `equals` method inherited from the `Point` class, but it only returns `true` if the passed-in object is an instance of `ColorPoint` and if the color of the two objects match. This means that if an instance of `Point` is passed to the `equals` method of an instance of `ColorPoint`, the method will always return `false`, even if the x and y coordinates of the two points are the same. This violates the symmetric and transitive requirements of the `equals` method, as described in the `Object` class.
 Another error state in the given code is the class hierarchy, `ColorPoint` extends `Point` and `Point` is instantiable and the subclass state is extended by adding `color` attribute. This design decision can lead to many issues like tests 1 and 2 returning different results, whereas they should return the same results.</t>
-  </si>
-  <si>
-    <t>Also talks about design perspective</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1483,9 +1439,6 @@
 I hope this helps!</t>
   </si>
   <si>
-    <t>Talks about composition indirectly</t>
-  </si>
-  <si>
     <t>The class Point defines a simple class that represents a point in 2D space. It has two private instance variables, x and y, that represent the x and y coordinates of the point. The class has a constructor that initializes these variables and an equals method that compares the x and y coordinates of this point with another point object.
 The class ColorPoint is a subclass of Point. It extends the state of the Point class by adding a private instance variable, color, that represents the color of the point. The class has a constructor that calls the constructor of the superclass and initializes the color variable. It also overrides the equals method of the superclass to include a comparison of the color instance variable in addition to the x and y coordinates.
 The fault in this class hierarchy is that the equals method in the ColorPoint class does not properly handle the case when it is passed a Point object instead of a ColorPoint object. The current implementation returns false in that case, which is incorrect. The expected behavior is that the equals method should return true when a Point object and a ColorPoint object have the same x and y coordinates, regardless of the color of the ColorPoint object.
@@ -1855,9 +1808,6 @@
     <t>Rewrite your JUnit test as an appropriate JUnit theory. Evaluate it with suitable DataPoints.</t>
   </si>
   <si>
-    <t>Does not consider null points, non-point objects</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Here is an example of the JUnit test from (c) rewritten as a JUnit theory using appropriate DataPoints:
 ```java
@@ -2072,19 +2022,6 @@
     <t>Treats error as exception/crash</t>
   </si>
   <si>
-    <t xml:space="preserve">The first error state for the test case where a null value is passed to the function as an argument, for example:
-Copy code
-lastZero(null);
-The error state is a NullPointerException being thrown. This error state occurs when the code attempts to access elements of the input array, but the array is null, so the program throws an exception.
-The complete state of the error would be:
-The program counter is pointing at the line where the exception is thrown
-The exception message is "null"
-The stack trace will show the method lastZero(int[] x) as the location where the exception occurred
-The program continues to execute other lines of code after catching the exception, if it is handled properly.
-It is worth noting that this error state is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">As I mentioned previously, there are multiple ways to fix the original code and make it work as expected. But, I will show one possible way to fix the original code and make it return the last index of zero.
 Copy code
 public static int lastZero (int[] x) {
@@ -2141,90 +2078,8 @@
 In this case, the program will stop execution when the exception is thrown, hence it is not possible to have a test case that results in an error but not a failure.</t>
   </si>
   <si>
-    <t>The given test case is:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
-It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
-  </si>
-  <si>
     <t>Treats error as exception/crash
 Detects test from the commented code</t>
-  </si>
-  <si>
-    <t>Here is an implementation of the repaired code that includes a null check for the input array:
-Copy code
-public static int oddOrPos (int[] x) {
-      if (x == null) {
-         throw new NullPointerException("Input array cannot be null");
-      }
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++) {
-         if (x[i]%2 == 1 || x[i] &gt; 0) {
-            count++;
-         }
-      }
-      return count;
-   }
-And here is the test case that verifies that the given test now produces the expected output:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
-In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
-  </si>
-  <si>
-    <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
-In the given code, a TreeSet is created and both x and y are added to it. Since TreeSet uses the compareTo() method for ordering and comparison, the two BigDecimal objects are considered equal and only one element is added to the set. On the other hand, a HashSet is created and both x and y are added to it. Since HashSet uses the equals() method for comparison, the two BigDecimal objects are considered different and both are added to the set.
-To fix this fault, one approach would be to override the equals() method in the BigDecimal class to use the compareTo() method instead. Alternatively, a custom comparator that uses the compareTo() method could be provided when creating the TreeSet and HashSet collections.
-For example:
-Copy code
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-    // See Java Doc for add() in Set Interface
-This modification will ensure that the equals() method will return true when comparing x and y and fix the inconsistency between equals() and compareTo() methods in the BigDecimal class.</t>
-  </si>
-  <si>
-    <t>It is not possible to give a test case that does not execute the fault because the fault is inherent in the way that the BigDecimal class is implemented. The equals() and compareTo() methods in the BigDecimal class return different results for certain values, which causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
-However, once the equals method is overriden as described in (a) with the compareTo method, the test case will be successful.
-For example:
-Copy code
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.</t>
   </si>
   <si>
     <t>It is possible to give a test case that executes the fault, but does not result in an error state.
@@ -2256,53 +2111,6 @@
 The program runs without crashing, but the output is not what is expected. This is a failure but not an error.</t>
   </si>
   <si>
-    <t>Did not talk about the exact line
-Treats error as exception/crash</t>
-  </si>
-  <si>
-    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
-Here is the modified code:
-Copy code
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-With this modification, the test case that was provided will now produce the expected output.
-Copy code
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
-I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
-  </si>
-  <si>
     <t>Detects test from the commented code
 Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
   </si>
@@ -2328,19 +2136,6 @@
 ColorPoint cp1 = new ColorPoint (1,2,RED);
 p.equals (cp1);
 the fault will still be executed since the equals method in ColorPoint class does not check for equality of color field and it will return false.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
-For example, the following test case:
-Copy code
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-This test case will execute the fault because the equals method in the ColorPoint class does not properly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects. However, it does not result in an error state because the result of the comparison is true.
-This is because the equals method of Point class is being used to compare the Point and ColorPoint object, it checks for equality of x and y fields and hence the comparison returns true.
-Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
-</t>
   </si>
   <si>
     <t>Detects test from the commented code
@@ -2497,27 +2292,6 @@
 It's important to remember that this is just one way to test the contract between equals() and hashCode() using JUnit theory and different scenarios might require different test cases.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Did not check null points or points with similar values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Lacks testing knowledge</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">The given code correctly finds the last zero element in the array by iterating through the array in reverse order. However, it does not handle the case where there are multiple zeroes in the array. In such a case, it will return the index of the first zero it encounters instead of the last one. To fix this, you can modify the code to store the index of the last zero encountered in a separate variable, and update that variable every time a zero is encountered. Then, return that variable after the loop.
 ```
    public static int lastZero (int[] x)
@@ -3022,9 +2796,6 @@
     <t>Confidence.2</t>
   </si>
   <si>
-    <t>Explanation correct from the prespective that assumption about equality is not correct to the tester</t>
-  </si>
-  <si>
     <t>A test case that results in an error, but not a failure is passing a null value to the function as an argument, for example:
 lastZero(null);
 This will throw a NullPointerException because the code checks for a null value and throws an exception if the input array is null. This is an error because it indicates that something unexpected happened in the program, but it's not a failure because the program will not crash or halt, it will just throw an exception and the program can continue executing other lines of code after catching the exception.
@@ -3036,14 +2807,193 @@
 Detects test from the commented code</t>
   </si>
   <si>
-    <t>Solution code is faulty.</t>
+    <t xml:space="preserve">The first error state for the test case where a null value is passed to the function as an argument, for example:
+lastZero(null);
+The error state is a NullPointerException being thrown. This error state occurs when the code attempts to access elements of the input array, but the array is null, so the program throws an exception.
+The complete state of the error would be:
+The program counter is pointing at the line where the exception is thrown
+The exception message is "null"
+The stack trace will show the method lastZero(int[] x) as the location where the exception occurred
+The program continues to execute other lines of code after catching the exception, if it is handled properly.
+It is worth noting that this error state is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.
+</t>
+  </si>
+  <si>
+    <t>Wrong test case</t>
+  </si>
+  <si>
+    <t>No test case</t>
+  </si>
+  <si>
+    <t>The given test case is:
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+assert result == 3;
+In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
+It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
+  </si>
+  <si>
+    <t>Here is an implementation of the repaired code that includes a null check for the input array:
+public static int oddOrPos (int[] x) {
+      if (x == null) {
+         throw new NullPointerException("Input array cannot be null");
+      }
+      int count = 0;
+      for (int i = 0; i &lt; x.length; i++) {
+         if (x[i]%2 == 1 || x[i] &gt; 0) {
+            count++;
+         }
+      }
+      return count;
+   }
+And here is the test case that verifies that the given test now produces the expected output:
+Copy code
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+assert result == 3;
+As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
+In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
+  </si>
+  <si>
+    <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
+In the given code, a TreeSet is created and both x and y are added to it. Since TreeSet uses the compareTo() method for ordering and comparison, the two BigDecimal objects are considered equal and only one element is added to the set. On the other hand, a HashSet is created and both x and y are added to it. Since HashSet uses the equals() method for comparison, the two BigDecimal objects are considered different and both are added to the set.
+To fix this fault, one approach would be to override the equals() method in the BigDecimal class to use the compareTo() method instead. Alternatively, a custom comparator that uses the compareTo() method could be provided when creating the TreeSet and HashSet collections.
+For example:
+public class BigDecimalTest {
+    BigDecimal x = new BigDecimal ("1.0");
+    BigDecimal y = new BigDecimal ("1.00");
+    //override equals method
+    @Override
+    public boolean equals(Object obj) {
+        if(obj instanceof BigDecimal) {
+            return this.compareTo((BigDecimal) obj) == 0;
+        }
+        return false;
+    }
+    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
+    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+    BigDecimalTree.add (x);
+    BigDecimalTree.add (y);
+    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
+    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+    BigDecimalHash.add (x);
+    BigDecimalHash.add (y);
+    // HashSet uses equals(), so BigDecimalHash will now have 1 element
+    }
+    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
+    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
+    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
+    // See Java Doc for add() in Set Interface
+This modification will ensure that the equals() method will return true when comparing x and y and fix the inconsistency between equals() and compareTo() methods in the BigDecimal class.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that does not execute the fault because the fault is inherent in the way that the BigDecimal class is implemented. The equals() and compareTo() methods in the BigDecimal class return different results for certain values, which causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
+However, once the equals method is overriden as described in (a) with the compareTo method, the test case will be successful.
+For example:
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+BigDecimalTree.add (x);
+BigDecimalTree.add (y);
+assertEquals(1,BigDecimalTree.size());
+Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+BigDecimalHash.add (x);
+BigDecimalHash.add (y);
+assertEquals(1,BigDecimalHash.size());
+In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the given example, the problem is that the BigDecimal class's equals() and compareTo() methods are inconsistent. The code creates two BigDecimal objects, x and y, with the values "1.0" and "1.00" respectively. Even though x and y are not equal according to the equals() method (!x.equals(y)), the compareTo() method returns 0, indicating that they are equal.
+When these objects are added to a TreeSet, the set uses the compareTo() method to determine equality, so only one element is added to the set. However, when added to a HashSet, the set uses the equals() method, so both x and y are added to the set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>A test case that executes this fault but does not result in an error state would be to create two BigDecimal objects with slightly different values,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and add them to both a TreeSet and a HashSet. The output of the test would show that the TreeSet only has one element, while the HashSet has two elements, which would demonstrate the inconsistency between the equals() and compareTo() methods in the BigDecimal class.</t>
+    </r>
+  </si>
+  <si>
+    <t>APC or AIC?
+Did not talk about the exact line
+Treats error as exception/crash</t>
+  </si>
+  <si>
+    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
+Here is the modified code:
+public class BigDecimalTest {
+    BigDecimal x = new BigDecimal ("1.0");
+    BigDecimal y = new BigDecimal ("1.00");
+    //override equals method
+    @Override
+    public boolean equals(Object obj) {
+        if(obj instanceof BigDecimal) {
+            return this.compareTo((BigDecimal) obj) == 0;
+        }
+        return false;
+    }
+    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
+    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+    BigDecimalTree.add (x);
+    BigDecimalTree.add (y);
+    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
+    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+    BigDecimalHash.add (x);
+    BigDecimalHash.add (y);
+    // HashSet uses equals(), so BigDecimalHash will now have 1 element
+    }
+    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
+    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
+    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
+With this modification, the test case that was provided will now produce the expected output.
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+BigDecimalTree.add (x);
+BigDecimalTree.add (y);
+assertEquals(1,BigDecimalTree.size());
+Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+BigDecimalHash.add (x);
+BigDecimalHash.add (y);
+assertEquals(1,BigDecimalHash.size());
+In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
+I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
+For example, the following test case:
+Point p = new Point (1,2);
+ColorPoint cp1 = new ColorPoint (1,2,RED);
+ColorPoint cp2 = new ColorPoint (1,2,BLUE);
+p.equals (cp1); // Test 1: Result = true;
+This test case will execute the fault because the equals method in the ColorPoint class does not properly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects. However, it does not result in an error state because the result of the comparison is true.
+This is because the equals method of Point class is being used to compare the Point and ColorPoint object, it checks for equality of x and y fields and hence the comparison returns true.
+Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
+</t>
+  </si>
+  <si>
+    <t>APC sounds more appropriate here. The chatgpt solution looks correct except for the Point vs. Object parameter type. The solution is correct that Object is likely better but JUnit theory test and DataPoints otherwise look okay in ChatGPT's answer. (ChatGPT's answer should have perhaps included null too though)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3083,8 +3033,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3100,12 +3061,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,7 +3122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3184,14 +3139,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3202,8 +3157,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3522,12 +3480,12 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
@@ -3556,23 +3514,25 @@
     <col min="28" max="28" width="14.1640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="1"/>
+    <col min="31" max="31" width="8.83203125" style="1"/>
+    <col min="32" max="32" width="20" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3585,9 +3545,9 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -3599,7 +3559,7 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -3611,7 +3571,7 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -3624,9 +3584,9 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="W1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -3638,7 +3598,7 @@
       <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -3651,9 +3611,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>211</v>
+    <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -3665,19 +3625,19 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -3689,7 +3649,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -3701,13 +3661,10 @@
         <v>45</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>47</v>
@@ -3728,9 +3685,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>211</v>
+    <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -3742,7 +3699,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -3753,8 +3710,8 @@
       <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>248</v>
+      <c r="I3" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -3766,7 +3723,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -3802,9 +3759,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>211</v>
+    <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -3816,7 +3773,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -3824,8 +3781,8 @@
       <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>248</v>
+      <c r="I4" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -3837,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -3873,9 +3830,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>211</v>
+    <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -3887,72 +3844,69 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>211</v>
+    <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3964,7 +3918,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -3973,50 +3927,50 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AB6" s="1" t="s">
         <v>40</v>
       </c>
@@ -4024,9 +3978,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>211</v>
+    <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4038,250 +3992,247 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>248</v>
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>212</v>
+    <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="388" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>212</v>
+    <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="388" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>212</v>
+    <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>40</v>
@@ -4290,7 +4241,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -4299,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>40</v>
@@ -4308,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>40</v>
@@ -4317,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>40</v>
@@ -4326,21 +4277,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="388" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>212</v>
+    <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
@@ -4349,13 +4300,13 @@
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>40</v>
@@ -4364,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
@@ -4373,152 +4324,137 @@
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="388" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>212</v>
+    <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>93</v>
+        <v>240</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>212</v>
+    <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>40</v>
@@ -4526,11 +4462,9 @@
       <c r="L13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -4538,23 +4472,18 @@
       <c r="P13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>40</v>
@@ -4562,37 +4491,32 @@
       <c r="Y13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>213</v>
+    <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -4601,13 +4525,13 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>215</v>
+        <v>202</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>43</v>
@@ -4616,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -4625,7 +4549,7 @@
         <v>44</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>43</v>
@@ -4634,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>43</v>
@@ -4643,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>43</v>
@@ -4652,110 +4576,110 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>213</v>
+    <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>213</v>
+    <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>40</v>
@@ -4764,57 +4688,57 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>213</v>
+    <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
@@ -4823,13 +4747,13 @@
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>40</v>
@@ -4838,19 +4762,16 @@
         <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>123</v>
+      <c r="P17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>40</v>
@@ -4859,7 +4780,7 @@
         <v>41</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>40</v>
@@ -4867,52 +4788,46 @@
       <c r="Y17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AA17" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>288</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>213</v>
+    <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>214</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>215</v>
+        <v>273</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>40</v>
@@ -4920,11 +4835,8 @@
       <c r="L18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -4932,11 +4844,8 @@
       <c r="P18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>40</v>
@@ -4944,11 +4853,8 @@
       <c r="T18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="W18" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>40</v>
@@ -4956,11 +4862,8 @@
       <c r="Y18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AA18" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>40</v>
@@ -4968,114 +4871,96 @@
       <c r="AC18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
-    <row r="19" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>213</v>
+    <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>214</v>
+    <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5084,87 +4969,72 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>214</v>
+    <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -5173,31 +5043,31 @@
         <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>40</v>
@@ -5206,19 +5076,16 @@
         <v>41</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="AA21" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>43</v>
@@ -5227,63 +5094,63 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>214</v>
+    <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>40</v>
@@ -5292,7 +5159,7 @@
         <v>41</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>40</v>
@@ -5301,72 +5168,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>214</v>
+    <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -5375,21 +5242,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>214</v>
+    <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
@@ -5398,13 +5265,13 @@
         <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>216</v>
+        <v>146</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>43</v>
@@ -5413,7 +5280,7 @@
         <v>44</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>43</v>
@@ -5422,7 +5289,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>43</v>
@@ -5431,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>43</v>
@@ -5440,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>43</v>
@@ -5448,25 +5315,22 @@
       <c r="AC24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD24" s="1" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="25" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>214</v>
+    <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -5475,13 +5339,13 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>40</v>
@@ -5490,7 +5354,7 @@
         <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>40</v>
@@ -5499,7 +5363,7 @@
         <v>41</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>40</v>
@@ -5508,122 +5372,116 @@
         <v>41</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>3.9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>216</v>
+        <v>225</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q26"/>
       <c r="R26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z26"/>
       <c r="AA26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30" ht="340" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>3.9</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>43</v>
@@ -5631,11 +5489,11 @@
       <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>248</v>
+      <c r="I27" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>43</v>
@@ -5645,7 +5503,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>43</v>
@@ -5655,7 +5513,7 @@
       </c>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -5666,7 +5524,7 @@
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>43</v>
@@ -5676,7 +5534,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>43</v>
@@ -5686,264 +5544,252 @@
       </c>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>3.9</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>248</v>
+        <v>227</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M28"/>
       <c r="N28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z28"/>
       <c r="AA28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>3.9</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>248</v>
+        <v>228</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z29"/>
       <c r="AA29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>3.9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>248</v>
+        <v>68</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="P30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="3"/>
       <c r="R30" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="Y30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="3"/>
       <c r="AA30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="AC30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" ht="136" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>46</v>
@@ -5952,13 +5798,13 @@
         <v>41</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>46</v>
@@ -5966,11 +5812,8 @@
       <c r="L31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>46</v>
@@ -5978,11 +5821,8 @@
       <c r="P31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>46</v>
@@ -5990,11 +5830,8 @@
       <c r="T31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="W31" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>46</v>
@@ -6002,11 +5839,8 @@
       <c r="Y31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AA31" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>46</v>
@@ -6014,25 +5848,22 @@
       <c r="AC31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD31" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
-    <row r="32" spans="1:30" ht="170" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
@@ -6040,11 +5871,11 @@
       <c r="G32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>215</v>
+      <c r="I32" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>43</v>
@@ -6053,7 +5884,7 @@
         <v>44</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>43</v>
@@ -6062,7 +5893,7 @@
         <v>44</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>43</v>
@@ -6071,7 +5902,7 @@
         <v>44</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>43</v>
@@ -6080,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>43</v>

--- a/dataset/combined_pair.xlsx
+++ b/dataset/combined_pair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240703DD-5D2E-5640-B7AB-E17C11EAA9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57F9C9-1421-7448-BE05-D396277C534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="246">
   <si>
     <t>id</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>For the given test case, describe the first error state. Be sure to describe the complete state.</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Implement your repair and verify that the given test now produces the expected output. Submit a screen printout or other evidence that your new program works.</t>
   </si>
   <si>
     <t>/**
@@ -411,88 +405,7 @@
 - Return value: None (as it throws exception)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-My repair for the given code was to change the loop traversal direction to start from the end of the array and move towards the beginning, so that the first zero encountered would be the last zero in the array.
-```
-public static int lastZero (int[] x) {
-    if(x == null) return -1;
-    for (int i = x.length-1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            return i;
-        }
-    }
-    return -1;
-}
-```
-The given test case:
-```
-int[] x = {0, 1, 0};
-int result = lastZero(x);
-System.out.println("Expected = 2, Result = " + result);
-```
-Will now produce the expected output of 2, as the method will start from the end of the array and return the first zero it encounters which is the last zero in the array.
-Also, I have added a check for the null input arrays so that it returns -1 if array is null.
-It's worth mentioning that this is a simulation and I don't have access to any system to run this code and show the output, however, you can run this code on your local machine and check the output.
-</t>
-  </si>
-  <si>
     <t>APC</t>
-  </si>
-  <si>
-    <t>To find the last index of zero in an array, you can iterate through the array in reverse order and check if the current element is equal to zero. If it is, return the index. If the loop completes without finding a zero, return -1. Here is an updated implementation of the `lastZero` method:
-```
-public static int lastZero (int[] x) {
-    for (int i = x.length - 1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            return i;
-        }
-    }
-    return -1;
-}
-```
-You can test your implementation by creating an array of integers and calling the `lastZero` method on it, and comparing the result to what you expect it to be:
-```
-int[] testArray = {1, 2, 3, 0, 4, 5, 0};
-int lastZeroIndex = lastZero(testArray);
-System.out.println("Last zero index: " + lastZeroIndex);
-```
-Expected Output: `Last zero index: 6`
-If the output match the expectation, you can say that the solution is working fine and also can capture the output in some image and that can be your evidence of the solution working.</t>
-  </si>
-  <si>
-    <t>Here is the corrected version of the code that finds the last index of zero in the array:
-```
-public static int lastZero (int[] x)
-{
-   int lastIndex = -1;
-   for (int i = 0; i &lt; x.length; i++)
-   {
-      if (x[i] == 0)
-      {
-         lastIndex = i;
-      }
-   }
-   return lastIndex;
-}
-```
-In this version, I've added a variable `lastIndex` initialized to -1, to keep track of the last index of 0 that we come across in the loop. I've also changed the return statement inside the loop to update the `lastIndex` variable instead of returning the index immediately. This way, the loop will continue to iterate through the entire array, and the `lastIndex` variable will hold the last index of 0 that was found in the array.
-Testing the code with the input `x = [0, 1, 0]` will give the output `2`, which is the expected result.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I am an AI language model and I am not able to take screenshots or execute code. However, I can help you implement the repair to the given function.
-The given function iterates through the array and returns the index of the first zero it finds. To make it return the index of the last zero, you need to update the loop to start at the end of the array and iterate backwards. Additionally, you should initialize a variable to store the last zero index found, and update it only if a zero is found at a higher index than the previously found index. Here is an example of how to implement this:
-```
-    public static int lastZero (int[] x) {
-        int lastZeroIndex = -1;
-        for (int i = x.length - 1; i &gt;= 0; i--) {
-            if (x[i] == 0) {
-                lastZeroIndex = i;
-            }
-        }
-        return lastZeroIndex;
-    }
-```
-You can then test the function with the given test case and verify that the expected output is produced.</t>
   </si>
   <si>
     <t>/**
@@ -713,69 +626,6 @@
     <t>The first error state in this test case would be if the input array 'x' is null, causing a NullPointerException to be thrown in the method. This would occur on the first line of the method before any logic is executed, as the method checks for a null value before counting the elements in the array. The complete state of the error would be that the input array 'x' is null and a NullPointerException is thrown.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-As I am a text-based AI model, I am not able to provide a screen printout or other evidence of the program running. However, I can tell you that the repair I proposed in my previous answer would fix the issue with the given code. The modification I proposed was to add a null check before the for loop to ensure that the input array is not null. If the input array is null then it throws an `IllegalArgumentException` with a message "Input array is null.".
-Here is the modified code:
-```
-public static int oddOrPos (int[] x)
-{
-    if (x == null) {
-        throw new IllegalArgumentException("Input array is null.");
-    }
-    int count = 0;
-    for (int i = 0; i &lt; x.length; i++)
-    {
-        if (x[i]%2 == 1 || x[i] &gt; 0)
-        {
-            count++;
-        }
-    }
-    return count;
-}
-```
-If you run the test case:
-```
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-System.out.println(result);
-```
-with this modified code, it will produce the expected output of 3, which is the number of elements in the array that are either odd or positive. If you pass a null value to this method, it will throw `IllegalArgumentException` with message "Input array is null."
-This modified code will handle the error state in a graceful way, it will not cause the program to terminate abruptly and it will allow the program to continue execution after the error is handled.
-</t>
-  </si>
-  <si>
-    <t>This code appears to be a Java method for counting the number of elements in an array that are either odd or positive (or both). The method first checks if the input array `x` is null, and throws a `NullPointerException` if it is. If the input array is not null, the method then iterates through each element of the array, and checks if the element is odd (by using the modulus operator to check if the element is not divisible by 2) or if the element is positive (greater than 0). If either of these conditions is true, the count variable is incremented. Finally, the method returns the count of elements that meet the criteria.
-It appears that the requirement is to fix the code to correctly count all elements of the array that are either odd or positive, and not just odd. To fix the code, we could change the if statement to check 
-```if (x[i] % 2 != 0 || x[i] &gt; 0)``` 
-The current if statement check for x[i] &gt; 0 but in case the element is negative and even it will be considered as not odd or positive. But if we use above if statement it will take care of even positive numbers too.
-Please verify the output for the given test cases and consider it as a evidence for the new program working.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I am an AI language model and do not have the capability to execute code or take screenshots. However, based on the provided code, it looks like the function "oddOrPos" is counting the number of elements in the input array "x" that are either odd or positive. The given test case, where x = [-3, -2, 0, 1, 4], should return 3 as there are 3 elements (1, -2 and 4) that are either odd or positive in the array x. If this test case returns the expected output, then the function should be working correctly.</t>
-  </si>
-  <si>
-    <t>The given code appears to be a Java method that counts the number of elements in an array that are either odd or positive (or both). The method takes in an array of integers as its only parameter, and uses a for loop to iterate through the array and check if each element is odd or positive. If it is, the count variable is incremented. The method then returns the final count.
-To fix the issue that the test case x = [-3, -2, 0, 1, 4]  is not producing the expected output of 3. I would suggest changing the condition in the if statement from (x[i]%2 == 1 || x[i] &gt; 0)  to (x[i]%2 != 0 || x[i] &gt; 0). This would include both positive even numbers and negative numbers in the count, which would give us the expected output.
-The fixed code should look like this:
-```
-public static int oddOrPos (int[] x)
-   {  // Effects:  if x is null throw NullPointerException
-      // else return the number of elements in x that
-      //      are either odd or positive (or both)
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++)
-      {
-         if (x[i]%2 != 0 || x[i] &gt; 0)
-         {
-            count++;
-         }
-      }
-      return count;
-   }
-```
-After this implementation, the test case x = [-3, -2, 0, 1, 4]  should produce the expected output of 3.</t>
-  </si>
-  <si>
     <t>If possible, give a test case that does not execute the fault. If not, briefly explain why
 not.</t>
   </si>
@@ -789,10 +639,6 @@
   </si>
   <si>
     <t>In the given code, describe the first error state. Be sure to describe the complete state.</t>
-  </si>
-  <si>
-    <t>Implement your repair and verify that the given test now produces the expected output.
-Submit a screen printout or other evidence that your new program works.</t>
   </si>
   <si>
     <t xml:space="preserve"> Consider the following three example classes. These are OO faults taken from Joshua Bloch’s
@@ -996,104 +842,6 @@
   </si>
   <si>
     <t>The first error state in the given code occurs when the elements x and y, which are instances of the BigDecimal class with the values "1.0" and "1.00" respectively, are added to the BigDecimalTree Set. Since the TreeSet uses the compareTo() method for comparison, the element y is considered equal to the element x and is not added to the set, resulting in the BigDecimalTree Set having only 1 element. This is an error state as the expected behavior is that the BigDecimalTree Set should have 2 elements, x and y, as they have different values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-As previously discussed, one way to fix this issue is to modify the `equals()` method in the `BigDecimal` class so that it is consistent with the `compareTo()` method.
-Here's the modified `BigDecimal` class:
-```
-public class BigDecimal {
-    private java.math.BigDecimal value;
-    public BigDecimal(String val) {
-        value = new java.math.BigDecimal(val);
-    }
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return value.compareTo(((BigDecimal) o).value) == 0;
-        }
-        return false;
-    }
-    public int compareTo(BigDecimal bd) {
-        return value.compareTo(bd.value);
-    }
-}
-```
-With this modification, we can run the test case
-```
-BigDecimal x = new BigDecimal("1.0");
-BigDecimal y = new BigDecimal("1.00");
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
-BigDecimalTree.add(x);
-BigDecimalTree.add(y);
-Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
-BigDecimalHash.add(x);
-BigDecimalHash.add(y);
-System.out.println("BigDecimalTree = " + BigDecimalTree);
-System.out.println("BigDecimalHash = " + BigDecimalHash);
-```
-The output will be 
-```
-BigDecimalTree = [1]
-BigDecimalHash = [1]
-```
-which is the expected output.
-It should be noted that this is a simplified version of the class, and in practice, the `BigDecimal` class has more methods and constructors that would also need to be modified to ensure consistency between `equals()` and `compareTo()` throughout the class.
-</t>
-  </si>
-  <si>
-    <t>The problem with the given code is that in BigDecimal, the equals() and compareTo() methods are inconsistent, which causes unexpected behavior when using the BigDecimal class in a Set. Specifically, when adding x and y to a TreeSet, only one element is added because TreeSet uses compareTo(), and x.compareTo(y) returns 0. However, when adding x and y to a HashSet, both elements are added because HashSet uses equals() and x.equals(y) returns false.
-One way to "repair" this problem would be to override the equals() method in BigDecimal to be consistent with compareTo(). A possible implementation would be to use the following in the BigDecimal class:
-```
-@Override
-public boolean equals(Object o) {
-    if (o instanceof BigDecimal) {
-        return compareTo((BigDecimal) o) == 0;
-    }
-    return false;
-}
-```
-This implementation of equals uses compareTo() to compare two BigDecimal objects and returns true only if they are equal according to compareTo() (i.e., when compareTo() returns 0). This ensures that the behavior of equals is consistent with the behavior of compareTo.
-The test case you mentioned in your question should now work as expected and will give the output:
-```
-BigDecimalTree = 1
-BigDecimalHash = 1,1
-```
-Please Note that this implementation is based on the assumption that, compareTo() implementation already correct, as you have mentioned "suppose we decide that compareTo() is correct, and that equals() is faulty"</t>
-  </si>
-  <si>
-    <t>The given code uses BigDecimal objects in a TreeSet and a HashSet. It is stated that the `equals()` method of BigDecimal is inconsistent with its `compareTo()` method. The TreeSet uses the `compareTo()` method for its elements, so the TreeSet only has one element, while the HashSet uses the `equals()` method, so it has two elements.
-To repair this issue, one solution would be to override the `equals()` method in the BigDecimal class to use the `compareTo()` method instead. This way, the `equals()` method would be consistent with the `compareTo()` method, and the HashSet would have the same behavior as the TreeSet.
-Here's an example of how the BigDecimal class could be modified to fix the issue:
-```
-public class BigDecimal {
-    // existing code ...
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return compareTo((BigDecimal) o) == 0;
-        }
-        return false;
-    }
-}
-```
-With this modification, the test code would produce the expected output of "BigDecimalTree = 1; BigDecimalHash = 1".
-It is better to use a wrapper class that wraps BigDecimal and override the equals method, rather than modifying BigDecimal class which is a final class.</t>
-  </si>
-  <si>
-    <t>The provided code demonstrates an issue with the implementation of the `equals()` and `compareTo()` methods in the `BigDecimal` class. The `equals()` method returns `false` when comparing `x` and `y`, even though `x.compareTo(y)` returns `0`, indicating that they are equal. As a result, when adding `x` and `y` to a `TreeSet`, only one element is added to the set (since `TreeSet` uses `compareTo()` for element ordering and comparison), while adding them to a `HashSet` results in both elements being added (since `HashSet` uses `equals()` for element comparison).
-To repair this issue, the `equals()` method in the `BigDecimal` class should be overridden to use the same comparison logic as the `compareTo()` method. This can be done by adding the following code to the `BigDecimal` class:
-```
-@Override
-public boolean equals(Object obj) {
-    if (!(obj instanceof BigDecimal)) {
-        return false;
-    }
-    return compareTo((BigDecimal) obj) == 0;
-}
-```
-With this modification, when adding `x` and `y` to a `TreeSet` and `HashSet`, both sets will have only one element. Thus, the test output will be "BigDecimalTree = 1; BigDecimalHash = 1" which is the expected output.
-It is advisable to also override the hashCode method as well to follow the contract of hashcode and equals.</t>
   </si>
   <si>
     <t xml:space="preserve">Consider the following three example classes. These are OO faults taken from Joshua Bloch’s
@@ -1343,140 +1091,6 @@
 Another error state in the given code is the class hierarchy, `ColorPoint` extends `Point` and `Point` is instantiable and the subclass state is extended by adding `color` attribute. This design decision can lead to many issues like tests 1 and 2 returning different results, whereas they should return the same results.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-As I explained before, to correct this fault, the equals method in the ColorPoint class should be modified to first check if the object being compared to is an instance of Point, and if so, call the superclass's equals method and check if the colors are the same.
-```
-@Override public boolean equals (Object o) {
-    if (o == null || getClass() != o.getClass()) return false;
-    if (o instanceof Point) {
-        Point p = (Point) o;
-        return (p.x == this.x) &amp;&amp; (p.y == this.y);
-    }
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-```
-With this modification, the test case that caused the error state before:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-p.equals (cp1); // Test: Result = false;
-```
-Now it should return true, indicating that the two instances of Point and ColorPoint are equal.
-I'm an AI language model, I can not run the code and give you a screen printout, but you can run the code with the modification and check the expected results.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The class Point defines a basic class for representing a point in a 2D space. It has two private fields x and y that represent the coordinates of the point, and a constructor that initializes them. It also overrides the equals method, so that two points are considered equal if their coordinates are the same.
-The ColorPoint class extends the Point class and adds an additional field color that represents the color of the point. It also overrides the equals method, but it has a fault, because it only considers two ColorPoint objects equal if their coordinates and color are the same. This is problematic because it breaks the symmetry of the equals contract, as it will return false for the following test: p.equals(cp1) and cp1.equals(p) even though both points have the same coordinates.
-To fix this issue, I would update the equals method of the ColorPoint class as follows:
-@Override public boolean equals (Object o) {
-    if (o == this) return true;
-    if (!(o instanceof Point)) return false;
-    if (o.getClass() != getClass()) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-This way, it will first check if the two objects are the same and if not, it will check that the class of the object is the same as the class of the point being compared with.
-Then, it will call the equals method of super class, instead of only checking for coordinates in the same class.
-With this modification, the following tests will produce the expected results:
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-It's worth noting that in Java, It's recommended to also override the hashCode() method when we override the equals() method, so the two methods are consistent with each other.
-</t>
-  </si>
-  <si>
-    <t>The class Point has an equals method that correctly checks if two Point objects are equal by comparing their x and y coordinates. However, in the subclass ColorPoint, the equals method is overridden and only checks if two ColorPoint objects are equal by comparing their color in addition to their x and y coordinates. This causes the problem that if a Point object and a ColorPoint object with the same x and y coordinates are compared, the result will be false, which is not the expected behavior.
-To repair this issue, the equals method in the ColorPoint class should first check if the passed object is an instance of Point, and if so, call the equals method of the superclass (Point) and return the result. This way, if a Point object and a ColorPoint object with the same x and y coordinates are compared, the result will be true, as expected. Additionally, the equals method in the Point class should be updated to check if the passed object is an instance of ColorPoint, and if so, cast it to a ColorPoint and return the comparison of the color.
-The tests given in the example:
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-will now produce the expected output.
-Here is the modified code:
-class Point
-{
-private int x; private int y;
-public Point (int x, int y) { this.x=x; this.y=y; }
-@Override public boolean equals (Object o)
-{
-    if (o instanceof Point) {
-        Point p = (Point) o;
-        return (p.x == this.x) &amp;&amp; (p.y == this.y);
-    }
-    if (o instanceof ColorPoint) {
-        ColorPoint cp = (ColorPoint) o;
-        return (cp.x == this.x) &amp;&amp; (cp.y == this.y) &amp;&amp; (cp.color == this.color);
-    }
-    return false;
-}
-}
-class ColorPoint extends Point
-{
-private Color color;
-public ColorPoint (int x, int y, Color color)
-{
-super (x,y);
-this.color=color;
-}
-@Override public boolean equals (Object o)
-{
-    if (o instanceof Point) {
-        return super.equals(o);
-    }
-    if (!(o instanceof ColorPoint)) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-}
-I hope this helps!</t>
-  </si>
-  <si>
-    <t>The class Point defines a simple class that represents a point in 2D space. It has two private instance variables, x and y, that represent the x and y coordinates of the point. The class has a constructor that initializes these variables and an equals method that compares the x and y coordinates of this point with another point object.
-The class ColorPoint is a subclass of Point. It extends the state of the Point class by adding a private instance variable, color, that represents the color of the point. The class has a constructor that calls the constructor of the superclass and initializes the color variable. It also overrides the equals method of the superclass to include a comparison of the color instance variable in addition to the x and y coordinates.
-The fault in this class hierarchy is that the equals method in the ColorPoint class does not properly handle the case when it is passed a Point object instead of a ColorPoint object. The current implementation returns false in that case, which is incorrect. The expected behavior is that the equals method should return true when a Point object and a ColorPoint object have the same x and y coordinates, regardless of the color of the ColorPoint object.
-To fix this issue, the equals method in the ColorPoint class should be modified to first check if the passed object is an instance of Point, and if so, call the equals method of the superclass to compare the x and y coordinates. If the passed object is not an instance of Point, then it should continue to check if it is an instance of ColorPoint and compare the color variable as well.
-Here's the fixed code:
-```
-class ColorPoint extends Point
-{
-private Color color;
-// Fault: Superclass instantiable; subclass state extended
-public ColorPoint (int x, int y, Color color)
-{
-super (x,y);
-this.color=color;
-}
-@Override public boolean equals (Object o)
-{
-if (!(o instanceof Point)) return false;
-if (o instanceof ColorPoint) {
-ColorPoint cp = (ColorPoint) o;
-return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-} else {
-    return super.equals(o);
-}
-}
-```
-With above modification, the tests:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-```
-Will produce the expected output.</t>
-  </si>
-  <si>
     <t>When overriding the equals() method, programmers are also required to override the hashCode() method; otherwise clients cannot store instances of these objects in common Collection structures such as HashSet. For example, the Point class from Chapter 1 is defective in this regard.</t>
   </si>
   <si>
@@ -2022,28 +1636,6 @@
     <t>Treats error as exception/crash</t>
   </si>
   <si>
-    <t xml:space="preserve">As I mentioned previously, there are multiple ways to fix the original code and make it work as expected. But, I will show one possible way to fix the original code and make it return the last index of zero.
-Copy code
-public static int lastZero (int[] x) {
-    int lastIndex = -1;
-    for (int i = x.length - 1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            lastIndex = i;
-        }
-    }
-    return lastIndex;
-}
-This modification will iterate backwards through the array, starting at the last index and ending at the first index, so it will always return the last zero in the array.
-To verify that this modification works and produces the expected output, we can run the test case x = [0, 1, 0] and check that the output is 2.
-Copy code
-int[] x = new int[]{0, 1, 0};
-int lastZeroIndex = lastZero(x);
-System.out.println(lastZeroIndex);
-And the output will be 2 which is the expected output as it is the last index of zero.
-I am an AI and i don't have the capability to take a screen printout or other evidence, but you can run the above code snippet in your local environment to verify that it works as expected.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The given code appears to be correctly counting the number of elements in the array x that are either odd or positive. However, the method signature states that it throws a NullPointerException if the input array x is null, but there is no null check implemented in the code. Therefore, if a null array is passed to the method, it will throw a NullPointerException when trying to access the length property of the array, rather than throwing the exception as stated in the method signature.
 A modification to the code to check for a null input array and throw the exception as stated in the method signature would be as follows:
 Copy code
@@ -2111,10 +1703,6 @@
 The program runs without crashing, but the output is not what is expected. This is a failure but not an error.</t>
   </si>
   <si>
-    <t>Detects test from the commented code
-Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
-  </si>
-  <si>
     <t>The fault in the given code is that the subclass, ColorPoint, extends the state of the superclass, Point, but does not properly override the equals method to account for this additional state. This results in the equals method in the subclass returning incorrect results when comparing a ColorPoint object to a Point object or to another ColorPoint object with a different color.
 A proposed modification to the code to correct this fault would be to update the equals method in the ColorPoint class to properly check for equality of the color field in addition to the x and y fields inherited from the Point class. For example:
 Copy code
@@ -2155,29 +1743,6 @@
 the values of the x and y fields inherited from the Point class match between the two objects being compared
 the value of the color field in the ColorPoint object being compared is different from the color field in the object being compared against.
 This complete state will lead to the error state, where the program will return incorrect output.
-</t>
-  </si>
-  <si>
-    <t>As I am a language model AI and don't have the ability to run the program, I can't provide a screen printout or other evidence that the new program works. However, I can provide the corrected implementation of the equals method in the ColorPoint class as proposed earlier:
-Copy code
-@Override public boolean equals (Object o) {
-    if (!(o instanceof ColorPoint)) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color.equals(this.color)));
-}
-This corrected implementation of the equals method in the ColorPoint class properly checks for equality of all relevant fields, including the color field, when comparing ColorPoint objects.
-This will ensure that the following test cases will produce the expected output:
-Copy code
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-System.out.println(p.equals (cp1)); // prints true
-System.out.println(cp1.equals (p)); // prints true
-System.out.println(cp1.equals (cp2)); // prints false
-with this modification the equals method in the ColorPoint class will correctly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects, and will return the expected output.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detects test from the commented code
 </t>
   </si>
   <si>
@@ -2377,28 +1942,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-As I am a text-based AI model I can't provide a screen printout or other evidence that my new program works. However, I can provide the modified code to fix the error:
-```
-public static int lastZero (int[] x) {
-    if (x == null) {
-        throw new NullPointerException("Input array is null");
-    }
-    int lastZeroIndex = -1;
-    for (int i = 0; i &lt; x.length; i++) {
-        if (x[i] == 0) {
-            lastZeroIndex = i;
-        }
-    }
-    return lastZeroIndex;
-}
-```
-In this new version of the code, I've added a null check at the beginning of the function to check if the input array is null. If it is, it throws a `NullPointerException` with an appropriate error message.
-This modification will handle the case where the input array is null, and it will prevent the program from throwing a `NullPointerException` and also it will give a proper error message to handle it.
-This modification will work on all test cases including the one where the input array is null and will give the expected output.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The code seems to be correctly counting the number of elements in the array that are either odd or positive, but it's not handling the case when the input array is null. The NullPointerException is thrown when trying to access x.length if x is null. To fix this, the code should check for a null input array before trying to access its elements, like this:
 ```
     if (x == null) {
@@ -2458,26 +2001,6 @@
 - The variable `i` has been initialized as 0 and is ready to be used in the loop.
 - The program counter is on the line of code where the exception is thrown.
 The program will stop executing after this error state and the NullPointerException will be thrown to the user.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-I am an AI model and I cannot create screen printout or other evidence. However, I can assure you that the repair  I proposed earlier  will solve the problem and the test case will now produce the expected output.
-As a reminder, the proposed fix was to check if the input array is null before trying to access its elements:
-```
-    if (x == null) {
-        throw new NullPointerException("Input array is null");
-    }
-    int count = 0;
-    for (int i = 0; i &lt; x.length; i++) {
-        if (x[i] % 2 == 1 || x[i] &gt; 0) {
-            count++;
-        }
-    }
-    return count;
-```
-With this modification, the code will check if the input array is null, and if it is, it will throw a NullPointerException with a message indicating that the input array is null. This way, the user of this method will know that the input array is null and the program will not try to access its elements, preventing the exception from being thrown.
-After this modification, the test case `int[] x = {-3, -2, 0, 1, 4}; int result = oddOrPos(x);` should produce the expected output of 3.
 </t>
   </si>
   <si>
@@ -2535,52 +2058,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-As mentioned earlier, one possible way to fix the issue is to override the `equals()` method in the `BigDecimal` class to use `compareTo()` instead of its current implementation.
-Here is an example of how this could be done:
-```
-public class BigDecimal {
-    // existing implementation of BigDecimal
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) o) == 0;
-        }
-        return false;
-    }
-}
-```
-Alternatively, we can also provide a custom comparator while creating TreeSet.
-```
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;(new Comparator&lt;BigDecimal&gt;() {
-    public int compare(BigDecimal bd1, BigDecimal bd2) {
-        return bd1.compareTo(bd2);
-    }
-});
-```
-With this modification,  the test case given earlier:
-```
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
-BigDecimalTree.add(x);
-BigDecimalTree.add(y);
-Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
-BigDecimalHash.add(x);
-BigDecimalHash.add(y);
-System.out.println("BigDecimalTree = " + BigDecimalTree);
-System.out.println("BigDecimalHash = " + BigDecimalHash);
-```
-will produce the expected output:
-```
-BigDecimalTree = [1.0]
-BigDecimalHash = [1.0, 1.00]
-```
-It is also worth noting that this modification will also make the `BigDecimal` class consistent with the `equals()` and `compareTo()` methods, which will prevent similar issues from occurring in the future.
-It would be great if you could provide the evidence of the program working, as I am a language model and I cannot execute the code.
-</t>
-  </si>
-  <si>
     <t>The fault in the given code is that the equals method in the ColorPoint subclass does not properly handle symmetry. Specifically, the equals method in the ColorPoint class only checks for equality when comparing a ColorPoint object to another ColorPoint object, and not when comparing a ColorPoint object to a Point object. This causes the equals method to return false when comparing a ColorPoint object to a Point object, even though they are equal in terms of their x and y coordinates.
 To fix this fault, the equals method in the ColorPoint class should be modified to check for equality when comparing a ColorPoint object to both a ColorPoint object and a Point object. One way to do this would be to add a check at the beginning of the method to see if the passed object is an instance of Point, and if so, call the equals method on the superclass and return the result. For example:
 @Override public boolean equals (Object o) {
@@ -2610,13 +2087,6 @@
   <si>
     <t>The first error state in the given code occurs when the equals method in the ColorPoint class is called and the passed object is an instance of Point. In this case, the method does not handle symmetry properly and returns false, even though the Point object and the ColorPoint object are equal in terms of their x and y coordinates.
 The complete state of the error is that the equals method in the ColorPoint class is not implemented correctly and does not handle symmetry when comparing to Point objects. As a result, it returns false when it should return true in certain cases. This causes the test cases p.equals(cp1) and cp1.equals(p) to return false, instead of true.</t>
-  </si>
-  <si>
-    <t>I am sorry, as a AI model, i don't have the capability to implement and test a repair on the specific code you provided. However, i already provided a possible solution on part (a) that handles symmetry when comparing a ColorPoint object to both a ColorPoint object and a Point object. To verify that the given test now produces the expected output, you can use the test cases i provided in part (a) and check that they now return the expected results, which are:
-p.equals(cp1) // returns true
-cp1.equals(p) // returns true
-cp1.equals(cp2) // returns false
-It's important to test the code with additional test cases and also verify that the new implementation does not break any other functionality in the code.</t>
   </si>
   <si>
     <t xml:space="preserve">Here is an example of how the problem with the Point class from Chapter 1 can be demonstrated using a HashSet:
@@ -2819,40 +2289,12 @@
 </t>
   </si>
   <si>
-    <t>Wrong test case</t>
-  </si>
-  <si>
-    <t>No test case</t>
-  </si>
-  <si>
     <t>The given test case is:
 int[] x = {-3, -2, 0, 1, 4};
 int result = oddOrPos(x);
 assert result == 3;
 In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
 It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
-  </si>
-  <si>
-    <t>Here is an implementation of the repaired code that includes a null check for the input array:
-public static int oddOrPos (int[] x) {
-      if (x == null) {
-         throw new NullPointerException("Input array cannot be null");
-      }
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++) {
-         if (x[i]%2 == 1 || x[i] &gt; 0) {
-            count++;
-         }
-      }
-      return count;
-   }
-And here is the test case that verifies that the given test now produces the expected output:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
-In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
   </si>
   <si>
     <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
@@ -2933,47 +2375,6 @@
 Treats error as exception/crash</t>
   </si>
   <si>
-    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
-Here is the modified code:
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-With this modification, the test case that was provided will now produce the expected output.
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
-I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
 For example, the following test case:
 Point p = new Point (1,2);
@@ -2993,7 +2394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3029,12 +2430,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3122,7 +2517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3156,9 +2551,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3477,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3545,7 +2937,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -3584,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>20</v>
@@ -3613,2311 +3005,2009 @@
     </row>
     <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="X3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="X4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AB4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>187</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="S8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="X8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AB8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="X9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AB9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>190</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="X10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AB10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>239</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="X11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AB11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>240</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>41</v>
+        <v>217</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>41</v>
+        <v>94</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>41</v>
+        <v>95</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>42</v>
+      </c>
       <c r="N13" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="3"/>
+        <v>42</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AA13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="X14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="AB14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="P15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>44</v>
+      <c r="AB15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>41</v>
+      <c r="AB16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="S17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AB17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>41</v>
+      <c r="AB18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>244</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>68</v>
+      <c r="AB19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="X20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="AB20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="AB21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>198</v>
+      <c r="A22" s="6">
+        <v>3.9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22"/>
       <c r="N22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22"/>
       <c r="R22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22"/>
+      <c r="V22"/>
       <c r="W22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z22"/>
       <c r="AA22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD22"/>
     </row>
     <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>198</v>
+      <c r="A23" s="6">
+        <v>3.9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M23"/>
       <c r="N23" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Q23"/>
       <c r="R23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
       <c r="W23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Z23"/>
       <c r="AA23" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AD23"/>
     </row>
     <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>198</v>
+      <c r="A24" s="6">
+        <v>3.9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M24"/>
       <c r="N24" s="1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Q24"/>
       <c r="R24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U24"/>
+      <c r="V24"/>
       <c r="W24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Z24"/>
       <c r="AA24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AD24"/>
     </row>
     <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>198</v>
+      <c r="A25" s="6">
+        <v>3.9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M25"/>
       <c r="N25" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Q25"/>
       <c r="R25" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
       <c r="W25" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Z25"/>
       <c r="AA25" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AD25"/>
     </row>
     <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>3.9</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M26"/>
-      <c r="N26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="1" t="s">
+      <c r="P27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="1" t="s">
+      <c r="T27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z26"/>
-      <c r="AA26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26" s="1" t="s">
+      <c r="Y27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD26"/>
+      <c r="AC27" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27"/>
-      <c r="N27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27"/>
-      <c r="R27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z27"/>
-      <c r="AA27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD27"/>
-    </row>
-    <row r="28" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28"/>
+        <v>42</v>
+      </c>
       <c r="N28" s="1" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28"/>
+        <v>42</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U28"/>
-      <c r="V28"/>
+        <v>42</v>
+      </c>
       <c r="W28" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z28"/>
+        <v>42</v>
+      </c>
       <c r="AA28" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29"/>
-      <c r="N29" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29"/>
-      <c r="R29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z29"/>
-      <c r="AA29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD29"/>
-    </row>
-    <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
